--- a/数据整理/stocks/港股/06049-保利物业.xlsx
+++ b/数据整理/stocks/港股/06049-保利物业.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,25 +502,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010024</t>
+          <t>002121</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发沪港深新起点股票C</t>
+          <t>广发沪港深新起点股票A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>55.47</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>88.21</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>4.13</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.2909</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>10</v>
       </c>
     </row>
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>008303</t>
+          <t>009931</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>宝盈龙头优选股票A</t>
+          <t>淳厚欣享一年持有期混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>90.42</t>
+          <t>16.79</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>9.64</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>5</v>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5138</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>008304</t>
+          <t>007639</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>宝盈龙头优选股票C</t>
+          <t>汇添富3年封闭运作竞争优势灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>90.42</t>
+          <t>15.53</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>9.64</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>5</v>
+          <t>68.57</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4162</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -576,25 +616,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>002121</t>
+          <t>010024</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>广发沪港深新起点股票A</t>
+          <t>广发沪港深新起点股票C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>7.59</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>88.21</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>4.13</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3135</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>10</v>
       </c>
     </row>
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>009931</t>
+          <t>008186</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>淳厚欣享一年持有期混合A</t>
+          <t>淳厚信睿核心精选混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>92.51</t>
+          <t>8.68</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.06</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>6</v>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2543</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>009939</t>
+          <t>008303</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>淳厚欣享一年持有期混合C</t>
+          <t>宝盈龙头优选股票A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>92.51</t>
+          <t>1.54</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3.06</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>6</v>
+          <t>90.42</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.64</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1485</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -660,26 +730,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>007639</t>
+          <t>009939</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>汇添富3年封闭运作竞争优势灵活配置混合</t>
+          <t>淳厚欣享一年持有期混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>68.57</t>
+          <t>4.33</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2.68</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>9</v>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1325</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -688,26 +768,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>007139</t>
+          <t>008187</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>富国民裕进取沪港深成长精选混合</t>
+          <t>淳厚信睿核心精选混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>90.12</t>
+          <t>2.78</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>4.60</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>6</v>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0815</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -716,26 +806,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>008186</t>
+          <t>007139</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>淳厚信睿核心精选混合A</t>
+          <t>富国民裕进取沪港深成长精选混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>93.67</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2.93</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>7</v>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0221</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -744,26 +844,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>008187</t>
+          <t>008304</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>淳厚信睿核心精选混合C</t>
+          <t>宝盈龙头优选股票C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>93.67</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2.93</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>7</v>
+          <t>90.42</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>9.64</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -777,7 +887,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -798,15 +908,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -818,26 +938,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009931</t>
+          <t>007639</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>淳厚欣享一年持有期混合A</t>
+          <t>汇添富3年封闭运作竞争优势灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>89.26</t>
+          <t>14.75</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.26</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>10</v>
+          <t>72.89</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6888</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -846,26 +976,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009939</t>
+          <t>007139</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>淳厚欣享一年持有期混合C</t>
+          <t>富国民裕进取沪港深成长精选混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>89.26</t>
+          <t>15.42</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.26</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>10</v>
+          <t>86.80</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5937</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -874,26 +1014,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>007639</t>
+          <t>009931</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>汇添富3年封闭运作竞争优势灵活配置混合</t>
+          <t>淳厚欣享一年持有期混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>72.89</t>
+          <t>17.23</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.67</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>7</v>
+          <t>89.26</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3894</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -902,26 +1052,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>007139</t>
+          <t>008186</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>富国民裕进取沪港深成长精选混合</t>
+          <t>淳厚信睿核心精选混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>86.80</t>
+          <t>9.23</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.85</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>6</v>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2151</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -930,25 +1090,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>008186</t>
+          <t>009939</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>淳厚信睿核心精选混合A</t>
+          <t>淳厚欣享一年持有期混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>90.44</t>
+          <t>4.33</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2.33</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
+          <t>89.26</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0979</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>10</v>
       </c>
     </row>
@@ -968,15 +1138,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>90.44</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>2.33</t>
         </is>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0648</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>10</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/06049-保利物业.xlsx
+++ b/数据整理/stocks/港股/06049-保利物业.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1163,4 +1164,364 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009736</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富稳健收益混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>52.62</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>23.47</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0103</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007639</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富3年封闭运作竞争优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>14.95</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>69.11</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6623</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009931</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>淳厚欣享一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>19.28</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.33</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6401</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009737</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富稳健收益混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>22.84</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>23.47</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4385</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008186</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>淳厚信睿核心精选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.26</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.21</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3540</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009939</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>淳厚欣享一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.33</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1604</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010878</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>诺德优势产业混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>79.58</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1485</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008187</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>淳厚信睿核心精选混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.21</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0835</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/06049-保利物业.xlsx
+++ b/数据整理/stocks/港股/06049-保利物业.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1524,4 +1525,592 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010088</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银瑞信优质成长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>25.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.71</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0950</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007639</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富3年封闭运作竞争优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>14.86</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>68.53</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8916</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005937</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银瑞信精选金融地产行业混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3361</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009931</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>淳厚欣享一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>15.09</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>78.15</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2807</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008186</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>淳厚信睿核心精选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.45</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2272</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012744</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>光大保德信品质生活混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.97</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>43.76</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1954</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001581</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华安沪港深通精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>81.19</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1673</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005938</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>工银瑞信精选金融地产行业混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1218</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>501063</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇添富悦享定期开放混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>65.23</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1159</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010089</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>工银瑞信优质成长混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>84.71</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0657</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010878</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>诺德优势产业混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0601</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009939</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>淳厚欣享一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>78.15</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0573</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008187</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>淳厚信睿核心精选混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.45</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0427</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012758</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>光大保德信品质生活混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>43.76</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/06049-保利物业.xlsx
+++ b/数据整理/stocks/港股/06049-保利物业.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2113,4 +2114,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>14</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.66</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.05</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>10</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/06049-保利物业.xlsx
+++ b/数据整理/stocks/港股/06049-保利物业.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2122,7 +2123,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2133,17 +2134,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2153,14 +2174,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>14</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.66</v>
+          <t>010088</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银瑞信优质成长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>72.77</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.43</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.1479</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -2169,14 +2212,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>8</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.5</v>
+          <t>501087</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银施罗德瑞丰三年封闭运作混合型</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>48.38</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>95.61</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.5351</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -2185,14 +2250,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>6</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.05</v>
+          <t>012744</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>光大保德信品质生活混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.17</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>79.98</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.31</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9468</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -2201,13 +2288,987 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>007639</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富3年封闭运作竞争优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>15.89</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>78.00</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9026</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008424</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中融品牌优选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>14.81</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6013</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012208</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏港股前沿经济混合型证券投资基金（QDII）A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>21.43</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>73.28</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5829</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009931</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>淳厚欣享一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>14.54</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4551</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005937</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>工银瑞信精选金融地产行业混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9.55</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4097</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011078</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>诺德品质消费6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2901</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001581</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华安沪港深通精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>86.85</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2022</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005938</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>工银瑞信精选金融地产行业混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1733</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006753</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>天弘港股通精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>83.32</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1533</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008186</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>淳厚信睿核心精选混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1423</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010987</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中融鑫锐研究精选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1327</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007592</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华夏价值精选混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1327</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>501063</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>汇添富悦享定期开放混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>86.44</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1252</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009347</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中融价值成长6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0869</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009939</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>淳厚欣享一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0726</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010089</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>工银瑞信优质成长混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>85.43</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0701</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008187</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>淳厚信睿核心精选混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0579</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>006752</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>天弘港股通精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>83.32</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0338</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>012758</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>光大保德信品质生活混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>79.98</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>9.31</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0317</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010988</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中融鑫锐研究精选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0307</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>012209</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华夏港股前沿经济混合型证券投资基金（QDII）C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>73.28</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009348</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中融价值成长6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>008425</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中融品牌优选混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>26</v>
+      </c>
+      <c r="D2" t="n">
+        <v>12.35</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>14</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.66</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.05</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>10</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>4.19</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/06049-保利物业.xlsx
+++ b/数据整理/stocks/港股/06049-保利物业.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3167,7 +3168,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3178,17 +3179,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3198,14 +3219,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>26</v>
-      </c>
-      <c r="D2" t="n">
-        <v>12.35</v>
+          <t>009548</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富中盘价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>161.71</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.81</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.4470</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -3214,14 +3257,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>14</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.66</v>
+          <t>501087</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银施罗德瑞丰三年封闭运作混合型</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>40.75</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.3268</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -3230,14 +3295,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>8</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.5</v>
+          <t>010088</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银瑞信优质成长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>19.41</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.44</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0501</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -3246,14 +3333,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>6</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.05</v>
+          <t>009549</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富中盘价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>21.00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.81</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5775</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -3262,13 +3371,1573 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>012744</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>光大保德信品质生活混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.96</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5618</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006752</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>天弘港股通精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.37</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5550</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005937</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>工银瑞信精选金融地产行业混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9.55</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.64</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4785</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009931</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>淳厚欣享一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>10.95</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.81</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4183</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011568</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华产业升级混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>21.41</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>68.03</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3982</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012208</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏港股前沿经济混合型证券投资基金（QDII）A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>12.53</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>82.34</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3972</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005938</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>工银瑞信精选金融地产行业混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.64</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3507</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008186</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>淳厚信睿核心精选混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8.49</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.47</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3311</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007639</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>汇添富3年封闭运作竞争优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>13.07</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>60.50</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3215</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006753</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>天弘港股通精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>85.37</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2014</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007592</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华夏价值精选混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1395</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010987</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中融鑫锐研究精选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>84.48</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1130</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009364</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>工银瑞信科技创新6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>69.85</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1104</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011349</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>淳厚现代服务业股票A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>81.51</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1010</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>007811</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>淳厚信泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>74.11</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0963</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011836</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>银华智能建造股票</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>86.11</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0956</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009939</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>淳厚欣享一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>88.81</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0749</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010089</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>工银瑞信优质成长混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>82.44</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0725</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009347</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中融价值成长6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0698</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>970067</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>兴证资管金麒麟消费升级混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>65.86</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0645</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>008187</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>淳厚信睿核心精选混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>88.47</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0644</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>008424</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中融品牌优选混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0505</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011331</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>鹏华远见成长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>63.89</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0414</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>004099</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>前海开源沪港深景气行业精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>9.53</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0391</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>007812</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>淳厚信泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>74.11</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0256</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>012758</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>光大保德信品质生活混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>84.96</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010988</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中融鑫锐研究精选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>84.48</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>970068</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>兴证资管金麒麟消费升级混合B</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>65.86</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>009365</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>工银瑞信科技创新6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>69.85</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>011350</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>淳厚现代服务业股票C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>81.51</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>012209</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华夏港股前沿经济混合型证券投资基金（QDII）C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>82.34</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>008861</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>西部利得港股通新机遇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>77.31</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>970069</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>兴证资管金麒麟消费升级混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>65.86</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>009348</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>中融价值成长6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>011569</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>鹏华产业升级混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>68.03</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>011332</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>鹏华远见成长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>63.89</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>008425</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>中融品牌优选混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010093</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>西部利得港股通新机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>77.31</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>42</v>
+      </c>
+      <c r="D2" t="n">
+        <v>13.74</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>26</v>
+      </c>
+      <c r="D3" t="n">
+        <v>12.35</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>14</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.66</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>6</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.05</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>10</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>4.19</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/06049-保利物业.xlsx
+++ b/数据整理/stocks/港股/06049-保利物业.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4820,7 +4821,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4831,17 +4832,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4851,14 +4872,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>42</v>
-      </c>
-      <c r="D2" t="n">
-        <v>13.74</v>
+          <t>009548</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富中盘价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>142.78</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.2126</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -4867,14 +4910,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>26</v>
-      </c>
-      <c r="D3" t="n">
-        <v>12.35</v>
+          <t>501087</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银施罗德瑞丰三年封闭运作混合型</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>44.08</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>81.93</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.1643</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -4883,14 +4948,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>14</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.66</v>
+          <t>010088</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银瑞信优质成长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>18.56</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>84.26</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9484</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -4899,14 +4986,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
+          <t>010488</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华优选成长混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>33.23</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>65.61</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5948</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>8</v>
-      </c>
-      <c r="D5" t="n">
-        <v>3.5</v>
       </c>
     </row>
     <row r="6">
@@ -4915,14 +5024,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>6</v>
-      </c>
-      <c r="D6" t="n">
-        <v>2.05</v>
+          <t>012744</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>光大保德信品质生活混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.26</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.50</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5567</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -4931,13 +5062,1171 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>006752</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>天弘港股通精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.31</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5511</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009549</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇添富中盘价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>23.95</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5389</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008186</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>淳厚信睿核心精选混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>12.90</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5083</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005938</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>工银瑞信精选金融地产行业混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3651</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009931</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>淳厚欣享一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>9.10</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3485</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005937</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>工银瑞信精选金融地产行业混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2741</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006753</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>天弘港股通精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.31</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1860</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007592</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华夏价值精选混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1428</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008187</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>淳厚信睿核心精选混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1099</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011349</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>淳厚现代服务业股票A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>88.96</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1069</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009364</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>工银瑞信科技创新6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>88.54</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1024</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011836</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>银华智能建造股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>83.60</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1010</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010987</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中融鑫锐研究精选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0845</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009939</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>淳厚欣享一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0774</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010089</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>工银瑞信优质成长混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>84.26</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0664</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>008424</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中融品牌优选混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>87.43</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0468</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011331</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>鹏华远见成长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>66.56</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0347</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>004099</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>前海开源沪港深景气行业精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>84.29</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0311</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010988</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中融鑫锐研究精选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011350</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>淳厚现代服务业股票C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>88.96</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>012758</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>光大保德信品质生活混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>86.50</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009365</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>工银瑞信科技创新6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>88.54</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010489</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>鹏华优选成长混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>65.61</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>008861</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>西部利得港股通新机遇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>78.80</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011332</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>鹏华远见成长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>66.56</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>008425</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中融品牌优选混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>87.43</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010093</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>西部利得港股通新机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>78.80</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>32</v>
+      </c>
+      <c r="D2" t="n">
+        <v>11.26</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>42</v>
+      </c>
+      <c r="D3" t="n">
+        <v>13.74</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>26</v>
+      </c>
+      <c r="D4" t="n">
+        <v>12.35</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>14</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.66</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>8</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>6</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2.05</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>10</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>4.19</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/06049-保利物业.xlsx
+++ b/数据整理/stocks/港股/06049-保利物业.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>32</v>
       </c>
       <c r="D2" t="n">
-        <v>11.26</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D3" t="n">
-        <v>13.74</v>
+        <v>11.26</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="D4" t="n">
-        <v>12.35</v>
+        <v>13.74</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D5" t="n">
-        <v>3.66</v>
+        <v>12.35</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D6" t="n">
-        <v>3.5</v>
+        <v>3.66</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D7" t="n">
-        <v>2.05</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2.05</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>10</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>4.19</v>
       </c>
     </row>
@@ -656,36 +673,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009548</t>
+          <t>501087</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>汇添富中盘价值精选混合A</t>
+          <t>交银施罗德瑞丰混合（LOF）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>142.78</t>
+          <t>23.31</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.18</t>
+          <t>84.93</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>8.01</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.2126</t>
+          <t>1.8671</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -694,36 +711,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>501087</t>
+          <t>010088</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>交银施罗德瑞丰三年封闭运作混合型</t>
+          <t>工银优质成长混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>44.08</t>
+          <t>15.38</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>81.93</t>
+          <t>69.60</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.91</t>
+          <t>6.57</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.1643</t>
+          <t>1.0105</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -732,36 +749,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010088</t>
+          <t>012744</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>工银瑞信优质成长混合A</t>
+          <t>光大保德信品质生活混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>18.56</t>
+          <t>5.60</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>84.26</t>
+          <t>88.62</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.11</t>
+          <t>9.68</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.9484</t>
+          <t>0.5421</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -770,36 +787,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>010488</t>
+          <t>008186</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>鹏华优选成长混合A</t>
+          <t>淳厚信睿核心精选混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>33.23</t>
+          <t>12.21</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>65.61</t>
+          <t>90.39</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.79</t>
+          <t>3.15</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.5948</t>
+          <t>0.3846</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -808,36 +825,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>012744</t>
+          <t>006752</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>光大保德信品质生活混合型证券投资基金A</t>
+          <t>天弘港股通精选灵活配置混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>8.26</t>
+          <t>4.67</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>86.50</t>
+          <t>93.60</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>6.74</t>
+          <t>7.43</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.5567</t>
+          <t>0.3470</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -846,36 +863,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>006752</t>
+          <t>005938</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>天弘港股通精选灵活配置混合A</t>
+          <t>工银瑞信精选金融地产行业混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>7.85</t>
+          <t>5.51</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>89.31</t>
+          <t>89.46</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>7.02</t>
+          <t>6.02</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.5511</t>
+          <t>0.3317</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -884,36 +901,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>009549</t>
+          <t>009931</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>汇添富中盘价值精选混合C</t>
+          <t>淳厚欣享一年持有期混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>23.95</t>
+          <t>8.97</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>91.18</t>
+          <t>90.37</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>3.41</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.5389</t>
+          <t>0.3059</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -922,36 +939,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>008186</t>
+          <t>009846</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>淳厚信睿核心精选混合A</t>
+          <t>富兰克林国海港股通远见价值混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>12.90</t>
+          <t>12.78</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>91.90</t>
+          <t>83.81</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.94</t>
+          <t>2.35</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.5083</t>
+          <t>0.3003</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -960,36 +977,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>005938</t>
+          <t>013561</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>工银瑞信精选金融地产行业混合C</t>
+          <t>中融匠心优选混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>6.98</t>
+          <t>5.24</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>91.11</t>
+          <t>92.24</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>5.23</t>
+          <t>5.25</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.3651</t>
+          <t>0.2751</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -998,36 +1015,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>009931</t>
+          <t>005937</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>淳厚欣享一年持有期混合A</t>
+          <t>工银瑞信精选金融地产行业混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>9.10</t>
+          <t>4.12</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>92.15</t>
+          <t>89.46</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>3.83</t>
+          <t>6.02</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.3485</t>
+          <t>0.2480</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
@@ -1036,36 +1053,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>005937</t>
+          <t>006753</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>工银瑞信精选金融地产行业混合A</t>
+          <t>天弘港股通精选灵活配置混合C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>5.24</t>
+          <t>2.52</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>91.11</t>
+          <t>93.60</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>5.23</t>
+          <t>7.43</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.2741</t>
+          <t>0.1872</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
@@ -1074,36 +1091,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>006753</t>
+          <t>011635</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>天弘港股通精选灵活配置混合C</t>
+          <t>富国港股通策略精选混合A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2.65</t>
+          <t>6.21</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>89.31</t>
+          <t>73.36</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>7.02</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.1860</t>
+          <t>0.1708</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14">
@@ -1122,26 +1139,26 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>2.26</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>94.33</t>
+          <t>93.77</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>5.29</t>
+          <t>7.40</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.1428</t>
+          <t>0.1672</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15">
@@ -1160,26 +1177,26 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2.79</t>
+          <t>4.34</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>91.90</t>
+          <t>90.39</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>3.94</t>
+          <t>3.15</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.1099</t>
+          <t>0.1367</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16">
@@ -1188,36 +1205,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>011349</t>
+          <t>001685</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>淳厚现代服务业股票A</t>
+          <t>汇添富沪港深新价值股票</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>3.65</t>
+          <t>2.57</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>88.96</t>
+          <t>81.20</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2.93</t>
+          <t>4.61</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.1069</t>
+          <t>0.1185</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17">
@@ -1226,36 +1243,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>009364</t>
+          <t>007811</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>工银瑞信科技创新6个月定期开放混合A</t>
+          <t>淳厚信泽灵活配置混合A</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1.97</t>
+          <t>4.78</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>88.54</t>
+          <t>65.90</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>5.20</t>
+          <t>2.01</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.1024</t>
+          <t>0.0961</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18">
@@ -1274,26 +1291,26 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2.55</t>
+          <t>2.02</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>83.60</t>
+          <t>93.98</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>3.96</t>
+          <t>4.42</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.1010</t>
+          <t>0.0893</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19">
@@ -1302,36 +1319,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>010987</t>
+          <t>010551</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>中融鑫锐研究精选一年持有期混合A</t>
+          <t>淳厚欣颐一年持有期混合</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>2.68</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>90.99</t>
+          <t>66.26</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>5.09</t>
+          <t>3.09</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.0845</t>
+          <t>0.0828</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20">
@@ -1340,36 +1357,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>009939</t>
+          <t>011349</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>淳厚欣享一年持有期混合C</t>
+          <t>淳厚现代服务业股票A</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2.02</t>
+          <t>2.55</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>92.15</t>
+          <t>79.82</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>3.83</t>
+          <t>3.02</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.0774</t>
+          <t>0.0770</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21">
@@ -1383,31 +1400,31 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>工银瑞信优质成长混合C</t>
+          <t>工银优质成长混合C</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1.30</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>84.26</t>
+          <t>69.60</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>5.11</t>
+          <t>6.57</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.0664</t>
+          <t>0.0690</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1416,36 +1433,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>008424</t>
+          <t>009939</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>中融品牌优选混合A</t>
+          <t>淳厚欣享一年持有期混合C</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1.34</t>
+          <t>1.71</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>87.43</t>
+          <t>90.37</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>3.49</t>
+          <t>3.41</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.0468</t>
+          <t>0.0583</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23">
@@ -1454,36 +1471,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>011331</t>
+          <t>010987</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>鹏华远见成长混合型证券投资基金A</t>
+          <t>中融鑫锐研究精选一年持有期混合A</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>1.93</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>66.56</t>
+          <t>92.17</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>5.44</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.0347</t>
+          <t>0.0555</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -1492,36 +1509,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>004099</t>
+          <t>008424</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>前海开源沪港深景气行业精选灵活配置混合</t>
+          <t>中融品牌优选混合A</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>84.29</t>
+          <t>91.34</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>5.56</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.0311</t>
+          <t>0.0388</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25">
@@ -1530,32 +1547,32 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>010988</t>
+          <t>012758</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>中融鑫锐研究精选一年持有期混合C</t>
+          <t>光大保德信品质生活混合C</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>90.99</t>
+          <t>88.62</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>5.09</t>
+          <t>9.68</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0.0219</t>
+          <t>0.0339</t>
         </is>
       </c>
       <c r="H25" t="n">
@@ -1568,27 +1585,27 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>011350</t>
+          <t>010988</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>淳厚现代服务业股票C</t>
+          <t>中融鑫锐研究精选一年持有期混合C</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>88.96</t>
+          <t>92.17</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2.93</t>
+          <t>5.44</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -1597,7 +1614,7 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1606,36 +1623,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>012758</t>
+          <t>013562</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>光大保德信品质生活混合型证券投资基金C</t>
+          <t>中融匠心优选混合C</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>86.50</t>
+          <t>92.24</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>6.74</t>
+          <t>5.25</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0.0189</t>
+          <t>0.0173</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1644,36 +1661,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>009365</t>
+          <t>011350</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>工银瑞信科技创新6个月定期开放混合C</t>
+          <t>淳厚现代服务业股票C</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>88.54</t>
+          <t>79.82</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>5.20</t>
+          <t>3.02</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0.0161</t>
+          <t>0.0172</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29">
@@ -1682,36 +1699,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>010489</t>
+          <t>007812</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>鹏华优选成长混合C</t>
+          <t>淳厚信泽灵活配置混合C</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>65.61</t>
+          <t>65.90</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>1.79</t>
+          <t>2.01</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>0.0154</t>
+          <t>0.0169</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30">
@@ -1720,36 +1737,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>008861</t>
+          <t>011636</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>西部利得港股通新机遇灵活配置混合A</t>
+          <t>富国港股通策略精选混合C</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>78.80</t>
+          <t>73.36</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2.94</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>0.0106</t>
+          <t>0.0157</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31">
@@ -1758,36 +1775,36 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>011332</t>
+          <t>002214</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>鹏华远见成长混合型证券投资基金C</t>
+          <t>中海沪港深价值优选灵活配置混合</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>66.56</t>
+          <t>83.65</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>2.55</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>0.0036</t>
+          <t>0.0130</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32">
@@ -1796,36 +1813,36 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>008425</t>
+          <t>000761</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>中融品牌优选混合C</t>
+          <t>国富健康优质生活股票</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>87.43</t>
+          <t>79.95</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>3.49</t>
+          <t>3.28</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>0.0035</t>
+          <t>0.0046</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33">
@@ -1834,27 +1851,27 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>010093</t>
+          <t>008425</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>西部利得港股通新机遇灵活配置混合C</t>
+          <t>中融品牌优选混合C</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>78.80</t>
+          <t>91.34</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2.94</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -1863,7 +1880,7 @@
         </is>
       </c>
       <c r="H33" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1872,6 +1889,1278 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009548</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富中盘价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>142.78</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.2126</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>501087</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银施罗德瑞丰三年封闭运作混合型</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>44.08</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>81.93</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.1643</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010088</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银瑞信优质成长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>18.56</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>84.26</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9484</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010488</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华优选成长混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>33.23</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>65.61</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5948</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012744</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>光大保德信品质生活混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.26</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.50</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5567</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006752</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>天弘港股通精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.31</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5511</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009549</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇添富中盘价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>23.95</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5389</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008186</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>淳厚信睿核心精选混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>12.90</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5083</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005938</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>工银瑞信精选金融地产行业混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3651</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009931</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>淳厚欣享一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>9.10</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3485</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005937</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>工银瑞信精选金融地产行业混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2741</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006753</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>天弘港股通精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.31</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1860</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007592</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华夏价值精选混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1428</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008187</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>淳厚信睿核心精选混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1099</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011349</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>淳厚现代服务业股票A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>88.96</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1069</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009364</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>工银瑞信科技创新6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>88.54</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1024</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011836</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>银华智能建造股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>83.60</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1010</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010987</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中融鑫锐研究精选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0845</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009939</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>淳厚欣享一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0774</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010089</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>工银瑞信优质成长混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>84.26</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0664</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>008424</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中融品牌优选混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>87.43</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0468</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011331</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>鹏华远见成长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>66.56</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0347</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>004099</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>前海开源沪港深景气行业精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>84.29</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0311</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010988</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中融鑫锐研究精选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011350</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>淳厚现代服务业股票C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>88.96</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>012758</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>光大保德信品质生活混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>86.50</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009365</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>工银瑞信科技创新6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>88.54</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010489</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>鹏华优选成长混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>65.61</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>008861</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>西部利得港股通新机遇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>78.80</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011332</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>鹏华远见成长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>66.56</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>008425</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中融品牌优选混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>87.43</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010093</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>西部利得港股通新机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>78.80</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3523,7 +4812,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4567,7 +5856,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5155,7 +6444,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5515,7 +6804,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5799,7 +7088,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/港股/06049-保利物业.xlsx
+++ b/数据整理/stocks/港股/06049-保利物业.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D2" t="n">
-        <v>7.1</v>
+        <v>8.09</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>32</v>
       </c>
       <c r="D3" t="n">
-        <v>11.26</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D4" t="n">
-        <v>13.74</v>
+        <v>11.26</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="D5" t="n">
-        <v>12.35</v>
+        <v>13.74</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D6" t="n">
-        <v>3.66</v>
+        <v>12.35</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D7" t="n">
-        <v>3.5</v>
+        <v>3.66</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D8" t="n">
-        <v>2.05</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="9">
@@ -601,18 +602,470 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>6</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2.05</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>10</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>4.19</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002121</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发沪港深新起点股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>55.47</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.21</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.2909</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009931</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>淳厚欣享一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>16.79</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5138</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007639</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富3年封闭运作竞争优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>15.53</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>68.57</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4162</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010024</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发沪港深新起点股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.59</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.21</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3135</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008186</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>淳厚信睿核心精选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.68</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2543</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008303</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>宝盈龙头优选股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.42</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.64</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1485</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009939</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>淳厚欣享一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1325</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008187</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>淳厚信睿核心精选混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0815</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007139</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国民裕进取沪港深成长精选混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0221</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008304</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>宝盈龙头优选股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.42</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>9.64</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -622,7 +1075,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -683,26 +1136,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>23.31</t>
+          <t>21.14</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>84.93</t>
+          <t>88.79</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>8.01</t>
+          <t>6.33</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.8671</t>
+          <t>1.3382</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -721,22 +1174,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>15.38</t>
+          <t>15.36</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>69.60</t>
+          <t>77.14</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6.57</t>
+          <t>7.24</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.0105</t>
+          <t>1.1121</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -749,36 +1202,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>012744</t>
+          <t>001371</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>光大保德信品质生活混合A</t>
+          <t>富国沪港深价值精选灵活配置混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>5.60</t>
+          <t>30.84</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>88.62</t>
+          <t>81.52</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>9.68</t>
+          <t>2.18</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.5421</t>
+          <t>0.6723</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -787,36 +1240,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>008186</t>
+          <t>001605</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>淳厚信睿核心精选混合A</t>
+          <t>国富沪港深成长精选股票</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>12.21</t>
+          <t>21.45</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>90.39</t>
+          <t>90.72</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.15</t>
+          <t>2.76</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.3846</t>
+          <t>0.5920</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -825,36 +1278,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>006752</t>
+          <t>012744</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>天弘港股通精选灵活配置混合A</t>
+          <t>光大保德信品质生活混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>4.67</t>
+          <t>6.13</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>93.60</t>
+          <t>84.35</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>7.43</t>
+          <t>7.56</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.3470</t>
+          <t>0.4634</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -863,36 +1316,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005938</t>
+          <t>006752</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>工银瑞信精选金融地产行业混合C</t>
+          <t>天弘港股通精选灵活配置混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>5.51</t>
+          <t>5.05</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>89.46</t>
+          <t>89.88</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>6.02</t>
+          <t>8.87</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.3317</t>
+          <t>0.4479</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -901,36 +1354,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>009931</t>
+          <t>009846</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>淳厚欣享一年持有期混合A</t>
+          <t>富兰克林国海港股通远见价值混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>8.97</t>
+          <t>15.17</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>90.37</t>
+          <t>90.16</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.41</t>
+          <t>2.91</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.3059</t>
+          <t>0.4414</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -939,36 +1392,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>009846</t>
+          <t>008186</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>富兰克林国海港股通远见价值混合</t>
+          <t>淳厚信睿核心精选混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>12.78</t>
+          <t>13.58</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>83.81</t>
+          <t>92.03</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2.35</t>
+          <t>3.22</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.3003</t>
+          <t>0.4373</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -977,36 +1430,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>013561</t>
+          <t>009931</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>中融匠心优选混合A</t>
+          <t>淳厚欣享一年持有期混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>5.24</t>
+          <t>9.76</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>92.24</t>
+          <t>91.90</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>5.25</t>
+          <t>3.34</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.2751</t>
+          <t>0.3260</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -1015,36 +1468,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>005937</t>
+          <t>013561</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>工银瑞信精选金融地产行业混合A</t>
+          <t>中融匠心优选混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>4.12</t>
+          <t>5.03</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>89.46</t>
+          <t>88.38</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>6.02</t>
+          <t>5.62</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.2480</t>
+          <t>0.2827</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -1053,36 +1506,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>006753</t>
+          <t>005937</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>天弘港股通精选灵活配置混合C</t>
+          <t>工银瑞信精选金融地产行业混合A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2.52</t>
+          <t>4.61</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>93.60</t>
+          <t>91.13</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>7.43</t>
+          <t>5.84</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.1872</t>
+          <t>0.2692</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
@@ -1091,36 +1544,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>011635</t>
+          <t>006753</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>富国港股通策略精选混合A</t>
+          <t>天弘港股通精选灵活配置混合C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>6.21</t>
+          <t>2.97</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>73.36</t>
+          <t>89.88</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>8.87</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.1708</t>
+          <t>0.2634</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
@@ -1129,36 +1582,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>007592</t>
+          <t>005938</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>华夏价值精选混合</t>
+          <t>工银瑞信精选金融地产行业混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2.26</t>
+          <t>4.46</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>93.77</t>
+          <t>91.13</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>7.40</t>
+          <t>5.84</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.1672</t>
+          <t>0.2605</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15">
@@ -1167,36 +1620,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>008187</t>
+          <t>007592</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>淳厚信睿核心精选混合C</t>
+          <t>华夏价值精选混合</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>4.34</t>
+          <t>4.06</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>90.39</t>
+          <t>93.21</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>3.15</t>
+          <t>5.94</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.1367</t>
+          <t>0.2412</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16">
@@ -1205,32 +1658,32 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>001685</t>
+          <t>008187</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>汇添富沪港深新价值股票</t>
+          <t>淳厚信睿核心精选混合C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2.57</t>
+          <t>6.13</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>81.20</t>
+          <t>92.03</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>4.61</t>
+          <t>3.22</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.1185</t>
+          <t>0.1974</t>
         </is>
       </c>
       <c r="H16" t="n">
@@ -1243,36 +1696,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>007811</t>
+          <t>012758</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>淳厚信泽灵活配置混合A</t>
+          <t>光大保德信品质生活混合C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>4.78</t>
+          <t>2.19</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>65.90</t>
+          <t>84.35</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2.01</t>
+          <t>7.56</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0961</t>
+          <t>0.1656</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -1281,36 +1734,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>011836</t>
+          <t>011530</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>银华智能建造股票</t>
+          <t>泓德优质治理灵活配置混合</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2.02</t>
+          <t>6.79</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>93.98</t>
+          <t>89.27</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>4.42</t>
+          <t>2.36</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.0893</t>
+          <t>0.1602</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19">
@@ -1319,36 +1772,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>010551</t>
+          <t>006039</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>淳厚欣颐一年持有期混合</t>
+          <t>国富估值优势混合A</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2.68</t>
+          <t>4.06</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>66.26</t>
+          <t>83.32</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>3.09</t>
+          <t>3.44</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.0828</t>
+          <t>0.1397</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20">
@@ -1357,36 +1810,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>011349</t>
+          <t>010089</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>淳厚现代服务业股票A</t>
+          <t>工银优质成长混合C</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2.55</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>79.82</t>
+          <t>77.14</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>3.02</t>
+          <t>7.24</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.0770</t>
+          <t>0.0652</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1395,36 +1848,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>010089</t>
+          <t>002562</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>工银优质成长混合C</t>
+          <t>泓德泓益量化混合</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>2.59</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>69.60</t>
+          <t>93.99</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>6.57</t>
+          <t>2.33</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.0690</t>
+          <t>0.0603</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22">
@@ -1433,36 +1886,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>009939</t>
+          <t>010987</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>淳厚欣享一年持有期混合C</t>
+          <t>中融鑫锐研究精选一年持有期混合A</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1.71</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>90.37</t>
+          <t>89.48</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>3.41</t>
+          <t>5.61</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.0583</t>
+          <t>0.0544</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -1471,36 +1924,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>010987</t>
+          <t>009939</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>中融鑫锐研究精选一年持有期混合A</t>
+          <t>淳厚欣享一年持有期混合C</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>1.02</t>
+          <t>1.56</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>92.17</t>
+          <t>91.90</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>5.44</t>
+          <t>3.34</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.0555</t>
+          <t>0.0521</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24">
@@ -1509,36 +1962,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>008424</t>
+          <t>010988</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>中融品牌优选混合A</t>
+          <t>中融鑫锐研究精选一年持有期混合C</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>91.34</t>
+          <t>89.48</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>5.61</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.0388</t>
+          <t>0.0185</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1547,32 +2000,32 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>012758</t>
+          <t>013562</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>光大保德信品质生活混合C</t>
+          <t>中融匠心优选混合C</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.35</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>88.62</t>
+          <t>88.38</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>9.68</t>
+          <t>5.62</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0.0339</t>
+          <t>0.0174</t>
         </is>
       </c>
       <c r="H25" t="n">
@@ -1585,36 +2038,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>010988</t>
+          <t>011131</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>中融鑫锐研究精选一年持有期混合C</t>
+          <t>富国沪港深价值精选灵活配置混合C</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.35</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>92.17</t>
+          <t>81.52</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>5.44</t>
+          <t>2.18</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0.0190</t>
+          <t>0.0065</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27">
@@ -1623,36 +2076,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>013562</t>
+          <t>000761</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>中融匠心优选混合C</t>
+          <t>国富健康优质生活股票</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>92.24</t>
+          <t>86.45</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>5.25</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0.0173</t>
+          <t>0.0051</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28">
@@ -1661,226 +2114,34 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>011350</t>
+          <t>017451</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>淳厚现代服务业股票C</t>
+          <t>国富估值优势混合C</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>79.82</t>
+          <t>83.32</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>3.02</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0172</t>
-        </is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>007812</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>淳厚信泽灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>0.84</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>65.90</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>2.01</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.0169</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>011636</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>富国港股通策略精选混合C</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>0.57</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>73.36</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>2.75</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.0157</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>002214</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>中海沪港深价值优选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>0.51</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>83.65</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>2.55</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.0130</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>000761</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>国富健康优质生活股票</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>79.95</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>3.28</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.0046</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>008425</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>中融品牌优选混合C</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>91.34</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>3.50</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.0024</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1945,36 +2206,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009548</t>
+          <t>501087</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>汇添富中盘价值精选混合A</t>
+          <t>交银施罗德瑞丰混合（LOF）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>142.78</t>
+          <t>23.31</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.18</t>
+          <t>84.93</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>8.01</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.2126</t>
+          <t>1.8671</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1983,36 +2244,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>501087</t>
+          <t>010088</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>交银施罗德瑞丰三年封闭运作混合型</t>
+          <t>工银优质成长混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>44.08</t>
+          <t>15.38</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>81.93</t>
+          <t>69.60</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.91</t>
+          <t>6.57</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.1643</t>
+          <t>1.0105</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -2021,36 +2282,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010088</t>
+          <t>012744</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>工银瑞信优质成长混合A</t>
+          <t>光大保德信品质生活混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>18.56</t>
+          <t>5.60</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>84.26</t>
+          <t>88.62</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.11</t>
+          <t>9.68</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.9484</t>
+          <t>0.5421</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -2059,36 +2320,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>010488</t>
+          <t>008186</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>鹏华优选成长混合A</t>
+          <t>淳厚信睿核心精选混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>33.23</t>
+          <t>12.21</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>65.61</t>
+          <t>90.39</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.79</t>
+          <t>3.15</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.5948</t>
+          <t>0.3846</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -2097,36 +2358,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>012744</t>
+          <t>006752</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>光大保德信品质生活混合型证券投资基金A</t>
+          <t>天弘港股通精选灵活配置混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>8.26</t>
+          <t>4.67</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>86.50</t>
+          <t>93.60</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>6.74</t>
+          <t>7.43</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.5567</t>
+          <t>0.3470</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -2135,36 +2396,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>006752</t>
+          <t>005938</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>天弘港股通精选灵活配置混合A</t>
+          <t>工银瑞信精选金融地产行业混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>7.85</t>
+          <t>5.51</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>89.31</t>
+          <t>89.46</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>7.02</t>
+          <t>6.02</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.5511</t>
+          <t>0.3317</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -2173,36 +2434,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>009549</t>
+          <t>009931</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>汇添富中盘价值精选混合C</t>
+          <t>淳厚欣享一年持有期混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>23.95</t>
+          <t>8.97</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>91.18</t>
+          <t>90.37</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>3.41</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.5389</t>
+          <t>0.3059</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -2211,36 +2472,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>008186</t>
+          <t>009846</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>淳厚信睿核心精选混合A</t>
+          <t>富兰克林国海港股通远见价值混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>12.90</t>
+          <t>12.78</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>91.90</t>
+          <t>83.81</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.94</t>
+          <t>2.35</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.5083</t>
+          <t>0.3003</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -2249,36 +2510,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>005938</t>
+          <t>013561</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>工银瑞信精选金融地产行业混合C</t>
+          <t>中融匠心优选混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>6.98</t>
+          <t>5.24</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>91.11</t>
+          <t>92.24</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>5.23</t>
+          <t>5.25</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.3651</t>
+          <t>0.2751</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -2287,36 +2548,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>009931</t>
+          <t>005937</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>淳厚欣享一年持有期混合A</t>
+          <t>工银瑞信精选金融地产行业混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>9.10</t>
+          <t>4.12</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>92.15</t>
+          <t>89.46</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>3.83</t>
+          <t>6.02</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.3485</t>
+          <t>0.2480</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
@@ -2325,36 +2586,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>005937</t>
+          <t>006753</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>工银瑞信精选金融地产行业混合A</t>
+          <t>天弘港股通精选灵活配置混合C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>5.24</t>
+          <t>2.52</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>91.11</t>
+          <t>93.60</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>5.23</t>
+          <t>7.43</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.2741</t>
+          <t>0.1872</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
@@ -2363,36 +2624,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>006753</t>
+          <t>011635</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>天弘港股通精选灵活配置混合C</t>
+          <t>富国港股通策略精选混合A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2.65</t>
+          <t>6.21</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>89.31</t>
+          <t>73.36</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>7.02</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.1860</t>
+          <t>0.1708</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14">
@@ -2411,26 +2672,26 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>2.26</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>94.33</t>
+          <t>93.77</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>5.29</t>
+          <t>7.40</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.1428</t>
+          <t>0.1672</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15">
@@ -2449,26 +2710,26 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2.79</t>
+          <t>4.34</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>91.90</t>
+          <t>90.39</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>3.94</t>
+          <t>3.15</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.1099</t>
+          <t>0.1367</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16">
@@ -2477,36 +2738,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>011349</t>
+          <t>001685</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>淳厚现代服务业股票A</t>
+          <t>汇添富沪港深新价值股票</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>3.65</t>
+          <t>2.57</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>88.96</t>
+          <t>81.20</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2.93</t>
+          <t>4.61</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.1069</t>
+          <t>0.1185</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17">
@@ -2515,36 +2776,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>009364</t>
+          <t>007811</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>工银瑞信科技创新6个月定期开放混合A</t>
+          <t>淳厚信泽灵活配置混合A</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1.97</t>
+          <t>4.78</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>88.54</t>
+          <t>65.90</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>5.20</t>
+          <t>2.01</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.1024</t>
+          <t>0.0961</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18">
@@ -2563,26 +2824,26 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2.55</t>
+          <t>2.02</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>83.60</t>
+          <t>93.98</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>3.96</t>
+          <t>4.42</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.1010</t>
+          <t>0.0893</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19">
@@ -2591,36 +2852,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>010987</t>
+          <t>010551</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>中融鑫锐研究精选一年持有期混合A</t>
+          <t>淳厚欣颐一年持有期混合</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>2.68</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>90.99</t>
+          <t>66.26</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>5.09</t>
+          <t>3.09</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.0845</t>
+          <t>0.0828</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20">
@@ -2629,36 +2890,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>009939</t>
+          <t>011349</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>淳厚欣享一年持有期混合C</t>
+          <t>淳厚现代服务业股票A</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2.02</t>
+          <t>2.55</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>92.15</t>
+          <t>79.82</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>3.83</t>
+          <t>3.02</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.0774</t>
+          <t>0.0770</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21">
@@ -2672,31 +2933,31 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>工银瑞信优质成长混合C</t>
+          <t>工银优质成长混合C</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1.30</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>84.26</t>
+          <t>69.60</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>5.11</t>
+          <t>6.57</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.0664</t>
+          <t>0.0690</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -2705,36 +2966,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>008424</t>
+          <t>009939</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>中融品牌优选混合A</t>
+          <t>淳厚欣享一年持有期混合C</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1.34</t>
+          <t>1.71</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>87.43</t>
+          <t>90.37</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>3.49</t>
+          <t>3.41</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.0468</t>
+          <t>0.0583</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23">
@@ -2743,36 +3004,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>011331</t>
+          <t>010987</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>鹏华远见成长混合型证券投资基金A</t>
+          <t>中融鑫锐研究精选一年持有期混合A</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>1.93</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>66.56</t>
+          <t>92.17</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>5.44</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.0347</t>
+          <t>0.0555</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -2781,36 +3042,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>004099</t>
+          <t>008424</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>前海开源沪港深景气行业精选灵活配置混合</t>
+          <t>中融品牌优选混合A</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>84.29</t>
+          <t>91.34</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>5.56</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.0311</t>
+          <t>0.0388</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25">
@@ -2819,32 +3080,32 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>010988</t>
+          <t>012758</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>中融鑫锐研究精选一年持有期混合C</t>
+          <t>光大保德信品质生活混合C</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>90.99</t>
+          <t>88.62</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>5.09</t>
+          <t>9.68</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0.0219</t>
+          <t>0.0339</t>
         </is>
       </c>
       <c r="H25" t="n">
@@ -2857,27 +3118,27 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>011350</t>
+          <t>010988</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>淳厚现代服务业股票C</t>
+          <t>中融鑫锐研究精选一年持有期混合C</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>88.96</t>
+          <t>92.17</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2.93</t>
+          <t>5.44</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -2886,7 +3147,7 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -2895,36 +3156,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>012758</t>
+          <t>013562</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>光大保德信品质生活混合型证券投资基金C</t>
+          <t>中融匠心优选混合C</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>86.50</t>
+          <t>92.24</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>6.74</t>
+          <t>5.25</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0.0189</t>
+          <t>0.0173</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -2933,36 +3194,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>009365</t>
+          <t>011350</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>工银瑞信科技创新6个月定期开放混合C</t>
+          <t>淳厚现代服务业股票C</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>88.54</t>
+          <t>79.82</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>5.20</t>
+          <t>3.02</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0.0161</t>
+          <t>0.0172</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29">
@@ -2971,36 +3232,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>010489</t>
+          <t>007812</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>鹏华优选成长混合C</t>
+          <t>淳厚信泽灵活配置混合C</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>65.61</t>
+          <t>65.90</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>1.79</t>
+          <t>2.01</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>0.0154</t>
+          <t>0.0169</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30">
@@ -3009,36 +3270,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>008861</t>
+          <t>011636</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>西部利得港股通新机遇灵活配置混合A</t>
+          <t>富国港股通策略精选混合C</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>78.80</t>
+          <t>73.36</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2.94</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>0.0106</t>
+          <t>0.0157</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31">
@@ -3047,36 +3308,36 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>011332</t>
+          <t>002214</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>鹏华远见成长混合型证券投资基金C</t>
+          <t>中海沪港深价值优选灵活配置混合</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>66.56</t>
+          <t>83.65</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>2.55</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>0.0036</t>
+          <t>0.0130</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32">
@@ -3085,36 +3346,36 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>008425</t>
+          <t>000761</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>中融品牌优选混合C</t>
+          <t>国富健康优质生活股票</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>87.43</t>
+          <t>79.95</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>3.49</t>
+          <t>3.28</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>0.0035</t>
+          <t>0.0046</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33">
@@ -3123,27 +3384,27 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>010093</t>
+          <t>008425</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>西部利得港股通新机遇灵活配置混合C</t>
+          <t>中融品牌优选混合C</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>78.80</t>
+          <t>91.34</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2.94</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -3152,7 +3413,7 @@
         </is>
       </c>
       <c r="H33" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -3161,6 +3422,1278 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009548</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富中盘价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>142.78</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.2126</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>501087</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银施罗德瑞丰三年封闭运作混合型</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>44.08</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>81.93</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.1643</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010088</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银瑞信优质成长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>18.56</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>84.26</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9484</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010488</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华优选成长混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>33.23</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>65.61</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5948</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012744</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>光大保德信品质生活混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.26</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.50</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5567</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006752</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>天弘港股通精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.31</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5511</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009549</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇添富中盘价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>23.95</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5389</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008186</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>淳厚信睿核心精选混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>12.90</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5083</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005938</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>工银瑞信精选金融地产行业混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3651</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009931</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>淳厚欣享一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>9.10</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3485</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005937</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>工银瑞信精选金融地产行业混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2741</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006753</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>天弘港股通精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.31</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1860</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007592</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华夏价值精选混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1428</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008187</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>淳厚信睿核心精选混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1099</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011349</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>淳厚现代服务业股票A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>88.96</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1069</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009364</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>工银瑞信科技创新6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>88.54</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1024</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011836</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>银华智能建造股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>83.60</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1010</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010987</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中融鑫锐研究精选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0845</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009939</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>淳厚欣享一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0774</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010089</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>工银瑞信优质成长混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>84.26</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0664</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>008424</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中融品牌优选混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>87.43</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0468</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011331</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>鹏华远见成长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>66.56</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0347</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>004099</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>前海开源沪港深景气行业精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>84.29</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0311</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010988</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中融鑫锐研究精选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011350</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>淳厚现代服务业股票C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>88.96</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>012758</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>光大保德信品质生活混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>86.50</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009365</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>工银瑞信科技创新6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>88.54</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010489</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>鹏华优选成长混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>65.61</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>008861</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>西部利得港股通新机遇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>78.80</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011332</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>鹏华远见成长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>66.56</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>008425</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中融品牌优选混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>87.43</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010093</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>西部利得港股通新机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>78.80</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4812,7 +6345,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5856,7 +7389,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6444,7 +7977,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6804,7 +8337,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7086,440 +8619,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H11"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>002121</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>广发沪港深新起点股票A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>55.47</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>88.21</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.13</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.2909</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>009931</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>淳厚欣享一年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>16.79</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>92.51</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.06</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.5138</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>007639</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>汇添富3年封闭运作竞争优势灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>15.53</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>68.57</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.68</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.4162</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>010024</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>广发沪港深新起点股票C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>7.59</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>88.21</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.13</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.3135</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>008186</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>淳厚信睿核心精选混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>8.68</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>93.67</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.93</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.2543</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>008303</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>宝盈龙头优选股票A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1.54</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>90.42</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>9.64</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.1485</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>009939</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>淳厚欣享一年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>4.33</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>92.51</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.06</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.1325</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>008187</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>淳厚信睿核心精选混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>2.78</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>93.67</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2.93</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0815</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>007139</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>富国民裕进取沪港深成长精选混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.48</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>90.12</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>4.60</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0221</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>008304</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>宝盈龙头优选股票C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.19</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>90.42</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>9.64</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0183</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>